--- a/src/mongodb/xlsx/data_crashing.xlsx
+++ b/src/mongodb/xlsx/data_crashing.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiyoungpark/Documents/kh_proj/src/mongodb/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexahn/Documents/kh_proj/src/mongodb/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2101,11 +2101,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2260,11 +2258,6 @@
       </c>
       <c r="O3">
         <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E27">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/mongodb/xlsx/data_crashing.xlsx
+++ b/src/mongodb/xlsx/data_crashing.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexahn/Documents/kh_proj/src/mongodb/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiyoungpark/Documents/kh_proj/src/mongodb/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -1583,9 +1583,6 @@
     <t>{'식품명_1': -5, '식품명_0': 2}</t>
   </si>
   <si>
-    <t>{'식품명_1':-1, '식품명_1': -2, '식품명_1': 0}</t>
-  </si>
-  <si>
     <t>{'식품명_2': -2, '식품명_0': 4}</t>
   </si>
   <si>
@@ -1674,6 +1671,9 @@
   </si>
   <si>
     <t>식품명_5</t>
+  </si>
+  <si>
+    <t>{'식품명_1':-1, '식품명_3': -2, '식품명_0': 4}</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2177,13 +2177,13 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -2207,7 +2207,7 @@
         <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O2">
         <v>180</v>
@@ -2224,13 +2224,13 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G3">
         <v>49</v>
@@ -2254,7 +2254,7 @@
         <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O3">
         <v>170</v>
@@ -2310,7 +2310,7 @@
         <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -3538,7 +3538,7 @@
         <v>365</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>383</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>361</v>
@@ -4137,7 +4137,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>403</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>361</v>
@@ -4286,7 +4286,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>433</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>361</v>
@@ -4435,7 +4435,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>433</v>
@@ -4570,8 +4570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4607,7 +4607,7 @@
         <v>513</v>
       </c>
       <c r="D2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4621,7 +4621,7 @@
         <v>514</v>
       </c>
       <c r="D3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4635,7 +4635,7 @@
         <v>515</v>
       </c>
       <c r="D4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4649,7 +4649,7 @@
         <v>516</v>
       </c>
       <c r="D5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4660,10 +4660,10 @@
         <v>495</v>
       </c>
       <c r="C6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4674,10 +4674,10 @@
         <v>497</v>
       </c>
       <c r="C7" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="D7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4688,10 +4688,10 @@
         <v>499</v>
       </c>
       <c r="C8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4702,10 +4702,10 @@
         <v>501</v>
       </c>
       <c r="C9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4719,7 +4719,7 @@
         <v>513</v>
       </c>
       <c r="D10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4730,10 +4730,10 @@
         <v>505</v>
       </c>
       <c r="C11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4744,10 +4744,10 @@
         <v>507</v>
       </c>
       <c r="C12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
